--- a/biology/Médecine/Macrocéphalie/Macrocéphalie.xlsx
+++ b/biology/Médecine/Macrocéphalie/Macrocéphalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Macroc%C3%A9phalie</t>
+          <t>Macrocéphalie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Macroc%C3%A9phalie</t>
+          <t>Macrocéphalie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette hypertrophie peut être physiologique, apparaissant comme un symptôme de plusieurs maladies :
 Syndrome de Bannayan-Riley-Ruvalcaba
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Macroc%C3%A9phalie</t>
+          <t>Macrocéphalie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En géographie, le concept de macrocéphalie désigne de façon figurée la configuration d'un espace largement dominé par un pôle unique concentrant population, activités et fonctions au point de freiner voire d'empêcher l'affirmation de pôles secondaires.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Macroc%C3%A9phalie</t>
+          <t>Macrocéphalie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Sciences Politiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Figurativement, on parle de macrocéphalie en matière de politique pour désigner un organe constitutionnel ou une structure politique dont le chef est doté de pouvoirs hors du commun, au point où il rend quasi nulle l'influence de tous les autres acteurs dans la prise de décisions ou l'application de celles-ci.
  Portail de la médecine   Portail de la géographie                    </t>
